--- a/Textuais/analise/tabela_sintese.xlsx
+++ b/Textuais/analise/tabela_sintese.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -505,30 +505,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6737482922093689</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.535495566089139e-06</v>
-      </c>
+        <v>0.6861940483696216</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-0.8926004000508677</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1496124129610161</v>
-      </c>
+        <v>-1.008171910507487</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Qual é a sua faixa etária? _26 a 35 anos: −; Qual é a sua faixa etária? _36 a 45 anos: −; Qual é a sua faixa etária? _Até 18 anos: −</t>
+          <t>(nenhum)</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.445</v>
+        <v>1.47</v>
       </c>
       <c r="J2" t="n">
         <v>1.235</v>
       </c>
       <c r="K2" t="n">
-        <v>1.459</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -546,30 +542,26 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7307889351611859</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.702517028107285e-07</v>
-      </c>
+        <v>0.7083454438668564</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-1.448894014540353</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.02570929478098861</v>
-      </c>
+        <v>-1.461322721082632</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>(nenhum)</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.513</v>
+        <v>1.521</v>
       </c>
       <c r="J3" t="n">
         <v>1.118</v>
       </c>
       <c r="K3" t="n">
-        <v>1.501</v>
+        <v>1.503</v>
       </c>
     </row>
     <row r="4">
@@ -579,7 +571,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -587,16 +579,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2557548659603283</v>
+        <v>0.2460931279543571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0311209182624563</v>
+        <v>0.033602767675503</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.332239785610245</v>
+        <v>-1.442755554078297</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03053721760770826</v>
+        <v>0.01840607756219748</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -604,13 +596,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.832</v>
+        <v>0.861</v>
       </c>
       <c r="J4" t="n">
         <v>0.412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.864</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="5">
@@ -620,7 +612,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -628,16 +620,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.008706813438064336</v>
+        <v>0.04728887021408018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9578404342916097</v>
+        <v>0.7622148479560011</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3505591629913749</v>
+        <v>-0.5152051173207841</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6333388550453416</v>
+        <v>0.4729047430015033</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -645,13 +637,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.239</v>
+        <v>0.241</v>
       </c>
       <c r="J5" t="n">
         <v>0.235</v>
       </c>
       <c r="K5" t="n">
-        <v>0.327</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="6">
@@ -661,7 +653,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -669,16 +661,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2594699972692793</v>
+        <v>0.2835270260531337</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0284956997732126</v>
+        <v>0.01508071271122066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7890533252926971</v>
+        <v>0.6422762889115384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1613159446341063</v>
+        <v>0.2466883465039889</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -686,13 +678,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.058</v>
+        <v>1.096</v>
       </c>
       <c r="J6" t="n">
         <v>1.294</v>
       </c>
       <c r="K6" t="n">
-        <v>0.987</v>
+        <v>1.038</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +694,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -710,16 +702,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.07497158503960936</v>
+        <v>0.09632425203403804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5533645814486027</v>
+        <v>0.4305323944020295</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7652536523931009</v>
+        <v>0.7297799076232409</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2341122104370398</v>
+        <v>0.248293410981379</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -727,13 +719,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.471</v>
+        <v>1.482</v>
       </c>
       <c r="J7" t="n">
         <v>1.706</v>
       </c>
       <c r="K7" t="n">
-        <v>1.485</v>
+        <v>1.487</v>
       </c>
     </row>
     <row r="8">
@@ -743,7 +735,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -751,30 +743,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4766176604596042</v>
+        <v>0.5230030682308782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001719279807522465</v>
+        <v>2.754120920357195e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9755888636168482</v>
+        <v>-1.023634031317514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1077686702140454</v>
+        <v>0.08645754054196722</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: −; Qual é a sua faixa etária? _26 a 35 anos: −</t>
+          <t>Qual é a sua faixa etária? _26 a 35 anos: −</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.801</v>
+        <v>0.832</v>
       </c>
       <c r="J8" t="n">
         <v>0.647</v>
       </c>
       <c r="K8" t="n">
-        <v>0.92</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -784,7 +776,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -792,26 +784,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4789385106007928</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>0.4644296600744926</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002059637428354426</v>
+      </c>
       <c r="F9" t="n">
-        <v>-0.3616811949113087</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-0.4459042273892518</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5670077725728775</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(nenhum)</t>
+          <t>Qual é a sua faixa etária? _56 a 65 anos: +</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.316</v>
+        <v>0.349</v>
       </c>
       <c r="J9" t="n">
         <v>0.176</v>
       </c>
       <c r="K9" t="n">
-        <v>0.259</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="10">
@@ -821,7 +817,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -829,16 +825,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2639693371561628</v>
+        <v>0.2882837383514863</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03547702029473614</v>
+        <v>0.01767256188349482</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1700154691109014</v>
+        <v>-0.2773768417251639</v>
       </c>
       <c r="G10" t="n">
-        <v>0.778283442072354</v>
+        <v>0.6377011039032311</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -846,13 +842,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.622</v>
+        <v>0.677</v>
       </c>
       <c r="J10" t="n">
         <v>0.588</v>
       </c>
       <c r="K10" t="n">
-        <v>0.672</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="11">
@@ -862,7 +858,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -870,30 +866,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.015122552319265</v>
+        <v>0.9936296312973112</v>
       </c>
       <c r="E11" t="n">
-        <v>1.804233164547604e-11</v>
+        <v>1.525981042040814e-11</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9781309403483025</v>
+        <v>-1.066588394161464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201358488385279</v>
+        <v>0.08654526373370235</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Você é homem? _Sim: +; Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Pós-graduação: +; Qual é a sua faixa etária? _36 a 45 anos: −</t>
+          <t>Você é homem? _Sim: +; Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Pós-graduação: +; Qual é a sua faixa etária? _66 anos ou mais: −</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.147</v>
+        <v>1.192</v>
       </c>
       <c r="J11" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>1.183</v>
+        <v>1.213</v>
       </c>
     </row>
     <row r="12">
@@ -903,7 +899,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -911,30 +907,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2479683694724496</v>
+        <v>0.2139073402206408</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04080400774929399</v>
+        <v>0.06496417567544929</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3395761075172594</v>
+        <v>-0.5063616343897716</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5633718566679837</v>
+        <v>0.3779699449703443</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Você é homem? _Sim: +; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +; Qual é a sua faixa etária? _Até 18 anos: +</t>
+          <t>Você é homem? _Sim: +; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.987</v>
+        <v>1.006</v>
       </c>
       <c r="J12" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>1.033</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="13">
@@ -944,7 +940,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -952,16 +948,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.8515003736059332</v>
+        <v>-0.7880021566927609</v>
       </c>
       <c r="E13" t="n">
-        <v>8.348740538530894e-07</v>
+        <v>1.3891015767994e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2983595189499521</v>
+        <v>-0.4223214093694668</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6533186956451218</v>
+        <v>0.5170574564411468</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -969,13 +965,13 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.523</v>
+        <v>0.512</v>
       </c>
       <c r="J13" t="n">
         <v>0.706</v>
       </c>
       <c r="K13" t="n">
-        <v>0.848</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="14">
@@ -985,7 +981,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -993,30 +989,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.6623034110803566</v>
+        <v>-0.6340600423567123</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166424652070344e-06</v>
+        <v>3.523615532210419e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4694555482884468</v>
+        <v>-0.6232641775092231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4214277783022098</v>
+        <v>0.2825208926971312</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : −; Você é homem? _Sim: −; Com qual grupo racial/étnico você mais se identifica? _Negro: +; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −</t>
+          <t>Qual é o seu vínculo empregatício? : −; Você é homem? _Sim: −</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.71</v>
+        <v>0.705</v>
       </c>
       <c r="J14" t="n">
         <v>0.765</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="15">
@@ -1026,7 +1022,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1034,16 +1030,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.03087291438683003</v>
+        <v>0.009241822791398947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7968444549898291</v>
+        <v>0.9374707032663521</v>
       </c>
       <c r="F15" t="n">
-        <v>1.753091670771536</v>
+        <v>1.72202208326251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0095545549853769</v>
+        <v>0.01009199463435156</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1051,13 +1047,13 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1.103</v>
+        <v>1.114</v>
       </c>
       <c r="J15" t="n">
         <v>1.765</v>
       </c>
       <c r="K15" t="n">
-        <v>1.235</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="16">
@@ -1067,7 +1063,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1075,16 +1071,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.2096259580090089</v>
+        <v>-0.1483047487554</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1304018539950567</v>
+        <v>0.2605043511370132</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.08926533659081839</v>
+        <v>-0.2308088228666189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8825570649060379</v>
+        <v>0.6969173931564701</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1092,13 +1088,13 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.419</v>
+        <v>0.434</v>
       </c>
       <c r="J16" t="n">
         <v>0.588</v>
       </c>
       <c r="K16" t="n">
-        <v>0.635</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="17">
@@ -1108,7 +1104,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1116,30 +1112,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1269450241589766</v>
+        <v>-0.1514377983600889</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3905919034111217</v>
+        <v>0.2934235802090568</v>
       </c>
       <c r="F17" t="n">
-        <v>1.285922117707165</v>
+        <v>1.166498889598845</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06227831731869028</v>
+        <v>0.0806137863310573</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _26 a 35 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
+          <t>Qual é o seu vínculo empregatício? : −; Qual seu nível de escolaridade? _Ensino Médio Completo: −; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _26 a 35 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
       <c r="J17" t="n">
         <v>0.412</v>
       </c>
       <c r="K17" t="n">
-        <v>0.171</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="18">
@@ -1149,7 +1145,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1157,16 +1153,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.2967388501752825</v>
+        <v>-0.2631154733872994</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01503864884098454</v>
+        <v>0.02769960653283825</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2946093679943611</v>
+        <v>0.1277877133973735</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6070157511480985</v>
+        <v>0.8212288685400834</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1174,13 +1170,13 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.654</v>
+        <v>0.659</v>
       </c>
       <c r="J18" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.85</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="19">
@@ -1190,7 +1186,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1198,30 +1194,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.3882018772512372</v>
+        <v>-0.3983062488892564</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001146077353489588</v>
+        <v>0.0006606387210300633</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1332983832281484</v>
+        <v>-0.01574659459461467</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8135324297848409</v>
+        <v>0.9776173662191169</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : −</t>
+          <t>Qual é o seu vínculo empregatício? : −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.071</v>
+        <v>1.084</v>
       </c>
       <c r="J19" t="n">
         <v>1.294</v>
       </c>
       <c r="K19" t="n">
-        <v>1.238</v>
+        <v>1.287</v>
       </c>
     </row>
     <row r="20">
@@ -1231,7 +1227,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1239,11 +1235,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9681347946143459</v>
+        <v>0.9383612582394699</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-0.2490632516243798</v>
+        <v>-0.3480750594465538</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1252,13 +1248,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1.66</v>
+        <v>1.659</v>
       </c>
       <c r="J20" t="n">
         <v>1.353</v>
       </c>
       <c r="K20" t="n">
-        <v>1.469</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="21">
@@ -1268,7 +1264,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1276,30 +1272,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.6882821693051843</v>
+        <v>-0.7101534444192357</v>
       </c>
       <c r="E21" t="n">
-        <v>1.048889704498811e-05</v>
+        <v>4.884986761718992e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6122605244569901</v>
+        <v>0.510790920910505</v>
       </c>
       <c r="G21" t="n">
-        <v>0.425210133530977</v>
+        <v>0.5099413821295086</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Você é homem? _Sim: −; Qual é a sua faixa etária? _26 a 35 anos: +; Qual é a sua faixa etária? _36 a 45 anos: +</t>
+          <t>Você é homem? _Sim: −; Qual é a sua faixa etária? _26 a 35 anos: +; Qual é a sua faixa etária? _36 a 45 anos: +; Qual é a sua faixa etária? _46 a 55 anos: +</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.423</v>
+        <v>1.407</v>
       </c>
       <c r="J21" t="n">
         <v>1.765</v>
       </c>
       <c r="K21" t="n">
-        <v>1.661</v>
+        <v>1.681</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1305,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1317,11 +1313,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.732044717023167</v>
+        <v>1.296034448617642</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>21.46477544320733</v>
+        <v>57.81570403671597</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1330,13 +1326,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.923</v>
+        <v>1.922</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1.773</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="23">
@@ -1346,7 +1342,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1354,11 +1350,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.04624932773944138</v>
+        <v>-0.05856946672666039</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>-0.4190106662009495</v>
+        <v>-0.6789065521093478</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1367,13 +1363,13 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.917</v>
+        <v>1.916</v>
       </c>
       <c r="J23" t="n">
         <v>1.882</v>
       </c>
       <c r="K23" t="n">
-        <v>1.953</v>
+        <v>1.963</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1379,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1391,16 +1387,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5200110972386799</v>
+        <v>0.4579284194720355</v>
       </c>
       <c r="E24" t="n">
-        <v>8.868316140151081e-05</v>
+        <v>0.0003481391511553751</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.007859725969976</v>
+        <v>-0.9321429412822579</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1437169072559279</v>
+        <v>0.169834444190587</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1408,13 +1404,13 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.523</v>
+        <v>0.524</v>
       </c>
       <c r="J24" t="n">
         <v>0.235</v>
       </c>
       <c r="K24" t="n">
-        <v>0.47</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="25">
@@ -1424,7 +1420,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1432,30 +1428,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3938002377914804</v>
+        <v>0.3237530832134355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001903270936568387</v>
+        <v>0.007377498521883152</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002265219467303373</v>
+        <v>0.1459217531348083</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9967418872644174</v>
+        <v>0.7893923887008276</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Qual é a sua faixa etária? _46 a 55 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
+          <t>Qual é o seu vínculo empregatício? : +; Qual é a sua faixa etária? _46 a 55 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.329</v>
+        <v>1.289</v>
       </c>
       <c r="J25" t="n">
         <v>1.176</v>
       </c>
       <c r="K25" t="n">
-        <v>1.158</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="26">
@@ -1465,7 +1461,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1473,16 +1469,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.09280776663356081</v>
+        <v>-0.09626214455971359</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5556964460373912</v>
+        <v>0.5383243404111357</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2291867158264358</v>
+        <v>0.1883234205001087</v>
       </c>
       <c r="G26" t="n">
-        <v>0.803441726979598</v>
+        <v>0.8388748444288388</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1490,13 +1486,13 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.69</v>
+        <v>1.693</v>
       </c>
       <c r="J26" t="n">
         <v>1.812</v>
       </c>
       <c r="K26" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
     </row>
     <row r="27">
@@ -1506,7 +1502,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1514,30 +1510,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.3017508743499053</v>
+        <v>-0.3193471069243226</v>
       </c>
       <c r="E27" t="n">
-        <v>0.009551986245959376</v>
+        <v>0.00516157853227601</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2543287078444367</v>
+        <v>0.3276128668462079</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6531175285308306</v>
+        <v>0.5577580323960153</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Qual é a sua faixa etária? _26 a 35 anos: +; Qual é a sua faixa etária? _36 a 45 anos: +</t>
+          <t>Qual é a sua faixa etária? _26 a 35 anos: +; Qual é a sua faixa etária? _36 a 45 anos: +; Qual é a sua faixa etária? _Até 18 anos: +</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.903</v>
+        <v>0.885</v>
       </c>
       <c r="J27" t="n">
         <v>1.118</v>
       </c>
       <c r="K27" t="n">
-        <v>0.991</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="28">
@@ -1547,7 +1543,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1555,30 +1551,26 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3028062032350085</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.139579112007278</v>
-      </c>
+        <v>0.3281276195042765</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>-0.5843409665558027</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.545508390486428</v>
-      </c>
+        <v>-0.555456844251257</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : −; Você é homem? _Sim: −</t>
+          <t>(nenhum)</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.859</v>
+        <v>1.868</v>
       </c>
       <c r="J28" t="n">
         <v>1.765</v>
       </c>
       <c r="K28" t="n">
-        <v>1.855</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="29">
@@ -1588,7 +1580,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1596,24 +1588,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2623223705340488</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04061075089255291</v>
-      </c>
+        <v>0.2478123741964953</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.07054671616466091</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.9092651863580268</v>
-      </c>
+        <v>0.06376950320332678</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>(nenhum)</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.431</v>
+        <v>1.445</v>
       </c>
       <c r="J29" t="n">
         <v>1.562</v>
@@ -1629,7 +1617,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1637,30 +1625,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6681780685888047</v>
+        <v>0.6947013824697169</v>
       </c>
       <c r="E30" t="n">
-        <v>7.722681178257966e-06</v>
+        <v>2.586569669652654e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05182671756468241</v>
+        <v>-0.03402176894113666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9362518525969716</v>
+        <v>0.9578023251858969</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : +; Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Médio Incompleto: +; Qual seu nível de escolaridade? _Ensino Superior Completo: +; Qual seu nível de escolaridade? _Pós-graduação: +; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
+          <t>Qual é o seu vínculo empregatício? : +; Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Médio Incompleto: +; Qual seu nível de escolaridade? _Pós-graduação: +; Qual é a sua faixa etária? _26 a 35 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.523</v>
+        <v>0.549</v>
       </c>
       <c r="J30" t="n">
         <v>0.471</v>
       </c>
       <c r="K30" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="31">
@@ -1670,7 +1658,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1678,30 +1666,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.294200065009819</v>
+        <v>-0.2656625505559411</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01709743392175654</v>
+        <v>0.02724925525193195</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2246007689239612</v>
+        <v>-0.3763489789721829</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6999480070410837</v>
+        <v>0.5136249872429773</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Com qual grupo racial/étnico você mais se identifica? _Outro: +</t>
+          <t>(nenhum)</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.323</v>
+        <v>1.355</v>
       </c>
       <c r="J31" t="n">
         <v>1.118</v>
       </c>
       <c r="K31" t="n">
-        <v>1.201</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="32">
@@ -1711,7 +1699,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1719,30 +1707,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2283972315185971</v>
+        <v>0.1841254421168568</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08379202304074464</v>
+        <v>0.1539140699221879</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9628483693809859</v>
+        <v>1.132693594985886</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1375247448020626</v>
+        <v>0.07884754352390182</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Qual é a sua faixa etária? _46 a 55 anos: −</t>
+          <t>Qual é a sua faixa etária? _26 a 35 anos: −; Qual é a sua faixa etária? _46 a 55 anos: −</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.532</v>
+        <v>0.509</v>
       </c>
       <c r="J32" t="n">
         <v>0.706</v>
       </c>
       <c r="K32" t="n">
-        <v>0.387</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33">
@@ -1752,7 +1740,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1760,26 +1748,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.1762535971929348</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+        <v>0.1379464153955826</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3157618845348849</v>
+      </c>
       <c r="F33" t="n">
-        <v>1.174598121733033</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>1.296695690547933</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0627731479602817</v>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(nenhum)</t>
+          <t>Qual é o seu vínculo empregatício? : +; Você é homem? _Sim: −; Qual é a sua faixa etária? _46 a 55 anos: −</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.418</v>
+        <v>0.39</v>
       </c>
       <c r="J33" t="n">
         <v>0.588</v>
       </c>
       <c r="K33" t="n">
-        <v>0.245</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="34">
@@ -1789,7 +1781,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1797,30 +1789,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.3938002377914804</v>
+        <v>0.3237530832134355</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001903270936568387</v>
+        <v>0.007377498521883152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002265219467303373</v>
+        <v>0.1459217531348083</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9967418872644174</v>
+        <v>0.7893923887008276</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Qual é a sua faixa etária? _46 a 55 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
+          <t>Qual é o seu vínculo empregatício? : +; Qual é a sua faixa etária? _46 a 55 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: +</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.329</v>
+        <v>1.289</v>
       </c>
       <c r="J34" t="n">
         <v>1.176</v>
       </c>
       <c r="K34" t="n">
-        <v>1.158</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="35">
@@ -1830,7 +1822,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1838,16 +1830,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.1817425747686253</v>
+        <v>-0.2128280165889447</v>
       </c>
       <c r="E35" t="n">
-        <v>0.127733776624965</v>
+        <v>0.06958258807201763</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4573723780890022</v>
+        <v>0.4896614141702462</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4336688923561159</v>
+        <v>0.3998953746351624</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1855,13 +1847,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.667</v>
+        <v>0.652</v>
       </c>
       <c r="J35" t="n">
         <v>0.588</v>
       </c>
       <c r="K35" t="n">
-        <v>0.462</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="36">
@@ -1871,7 +1863,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1879,30 +1871,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.246325341223028</v>
+        <v>0.1931403667134402</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05845825254364802</v>
+        <v>0.124832075621185</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07196823122883593</v>
+        <v>-0.002704615879675111</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8996073734586624</v>
+        <v>0.9961441781967378</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : +</t>
+          <t>Qual é o seu vínculo empregatício? : +; Você é homem? _Sim: −; Qual é a sua faixa etária? _Até 18 anos: −</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.422</v>
+        <v>1.388</v>
       </c>
       <c r="J36" t="n">
         <v>1.176</v>
       </c>
       <c r="K36" t="n">
-        <v>1.162</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="37">
@@ -1912,7 +1904,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1920,11 +1912,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5968517265196789</v>
+        <v>0.4095795771107692</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-0.05416976221729151</v>
+        <v>-0.2867424678009972</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1933,13 +1925,13 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1.539</v>
+        <v>1.504</v>
       </c>
       <c r="J37" t="n">
         <v>1.267</v>
       </c>
       <c r="K37" t="n">
-        <v>1.289</v>
+        <v>1.373</v>
       </c>
     </row>
     <row r="38">
@@ -1949,7 +1941,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1957,16 +1949,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5469029014603065</v>
+        <v>0.5317762671307571</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0002011817414361173</v>
+        <v>0.0001821820860425144</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.8327428045451565</v>
+        <v>-0.9731796025257555</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1755371680409359</v>
+        <v>0.1112117389761396</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1974,13 +1966,13 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.558</v>
+        <v>1.545</v>
       </c>
       <c r="J38" t="n">
         <v>1.176</v>
       </c>
       <c r="K38" t="n">
-        <v>1.447</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="39">
@@ -1990,7 +1982,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1998,30 +1990,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6331291223917492</v>
+        <v>0.6104136691770153</v>
       </c>
       <c r="E39" t="n">
-        <v>2.872633438213416e-05</v>
+        <v>3.075853650597926e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4977372864157437</v>
+        <v>-0.6297770258689845</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4224858044683262</v>
+        <v>0.3106088634258538</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Superior Completo: +; Qual seu nível de escolaridade? _Ensino Superior Incompleto: +; Qual seu nível de escolaridade? _Pós-graduação: +</t>
+          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Médio Incompleto: +; Qual seu nível de escolaridade? _Ensino Superior Completo: +; Qual seu nível de escolaridade? _Ensino Superior Incompleto: +; Qual seu nível de escolaridade? _Pós-graduação: +</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.506</v>
+        <v>1.497</v>
       </c>
       <c r="J39" t="n">
         <v>1.235</v>
       </c>
       <c r="K39" t="n">
-        <v>1.404</v>
+        <v>1.441</v>
       </c>
     </row>
     <row r="40">
@@ -2031,7 +2023,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2039,30 +2031,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.2119645201307262</v>
+        <v>0.1692299167917824</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3242019651139681</v>
+        <v>0.4062547640123049</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9992344807001948</v>
+        <v>0.8735873975538363</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4045929343774017</v>
+        <v>0.4633108441772648</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Superior Completo: +; Qual é a sua faixa etária? _Até 18 anos: −</t>
+          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: +; Qual seu nível de escolaridade? _Ensino Superior Completo: +; Qual seu nível de escolaridade? _Ensino Superior Incompleto: +; Qual seu nível de escolaridade? _Pós-graduação: +; Qual é a sua faixa etária? _Até 18 anos: −</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1.812</v>
+        <v>1.806</v>
       </c>
       <c r="J40" t="n">
         <v>1.941</v>
       </c>
       <c r="K40" t="n">
-        <v>1.858</v>
+        <v>1.867</v>
       </c>
     </row>
     <row r="41">
@@ -2072,7 +2064,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2080,16 +2072,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9448048705966264</v>
+        <v>0.9454914894315256</v>
       </c>
       <c r="E41" t="n">
-        <v>6.070043179232681e-11</v>
+        <v>1.728970001359971e-11</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.9949371154828803</v>
+        <v>-0.9861887716446349</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1418030342354862</v>
+        <v>0.141811508258362</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2097,13 +2089,13 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.039</v>
+        <v>1.066</v>
       </c>
       <c r="J41" t="n">
         <v>0.882</v>
       </c>
       <c r="K41" t="n">
-        <v>1.075</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="42">
@@ -2113,7 +2105,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2121,30 +2113,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4554020284938843</v>
+        <v>0.4083248098562761</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000563273937162012</v>
+        <v>0.001308982098841594</v>
       </c>
       <c r="F42" t="n">
-        <v>1.626614719034896</v>
+        <v>1.378092821140744</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01794826867363645</v>
+        <v>0.03671187698703091</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Médio Incompleto: −; Qual é a sua faixa etária? _36 a 45 anos: −</t>
+          <t>Qual é a sua faixa etária? _26 a 35 anos: −; Qual é a sua faixa etária? _36 a 45 anos: −</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.279</v>
+        <v>1.285</v>
       </c>
       <c r="J42" t="n">
         <v>1.588</v>
       </c>
       <c r="K42" t="n">
-        <v>1.224</v>
+        <v>1.263</v>
       </c>
     </row>
     <row r="43">
@@ -2154,7 +2146,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2162,30 +2154,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7253574146095909</v>
+        <v>0.6938378944763458</v>
       </c>
       <c r="E43" t="n">
-        <v>3.450416535455003e-07</v>
+        <v>4.164791871890292e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.9911997169965245</v>
+        <v>-1.122950868674807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1096909484537319</v>
+        <v>0.06445752775177832</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Você é homem? _Sim: −; Com qual grupo racial/étnico você mais se identifica? _Outro: +; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
+          <t>Você é homem? _Sim: −; Com qual grupo racial/étnico você mais se identifica? _Outro: +; Qual é a sua faixa etária? _46 a 55 anos: +; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1.357</v>
+        <v>1.382</v>
       </c>
       <c r="J43" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>1.205</v>
+        <v>1.252</v>
       </c>
     </row>
     <row r="44">
@@ -2195,7 +2187,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2203,30 +2195,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.4579738386091088</v>
+        <v>-0.4003052328092945</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0005081102886894416</v>
+        <v>0.00156536850041348</v>
       </c>
       <c r="F44" t="n">
-        <v>1.141018024953422</v>
+        <v>1.07455456978932</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09386431830597861</v>
+        <v>0.1097142103970869</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Superior Completo: −; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +; Qual é a sua faixa etária? _Até 18 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
+          <t>Qual é o seu vínculo empregatício? : −; Você é homem? _Sim: +; Qual seu nível de escolaridade? _Ensino Superior Completo: −; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +; Qual é a sua faixa etária? _Até 18 anos: −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.327</v>
+        <v>1.348</v>
       </c>
       <c r="J44" t="n">
         <v>1.765</v>
       </c>
       <c r="K44" t="n">
-        <v>1.472</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="45">
@@ -2236,7 +2228,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2244,16 +2236,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-1.327544363707872</v>
+        <v>-1.258270893794168</v>
       </c>
       <c r="E45" t="n">
-        <v>4.186872055725683e-10</v>
+        <v>4.620971507380195e-10</v>
       </c>
       <c r="F45" t="n">
-        <v>1.064310481150231</v>
+        <v>0.9794910783646782</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1257707173714652</v>
+        <v>0.1535143496120978</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2261,13 +2253,13 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.494</v>
+        <v>0.467</v>
       </c>
       <c r="J45" t="n">
         <v>0.9409999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.641</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="46">
@@ -2277,7 +2269,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2285,16 +2277,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.6252442802807433</v>
+        <v>-0.610287696976735</v>
       </c>
       <c r="E46" t="n">
-        <v>2.945847667933992e-06</v>
+        <v>2.341568124344258e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.07105709142637359</v>
+        <v>-0.07640322944307949</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9056619878541639</v>
+        <v>0.8973706233255634</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2302,13 +2294,13 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.695</v>
+        <v>0.679</v>
       </c>
       <c r="J46" t="n">
         <v>0.647</v>
       </c>
       <c r="K46" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="47">
@@ -2318,7 +2310,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2326,30 +2318,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.1062800242999863</v>
+        <v>-0.123297808708285</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3864468918589407</v>
+        <v>0.2982482354107212</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6753399884943907</v>
+        <v>0.6728813488550853</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2655000213858093</v>
+        <v>0.2617309419040669</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Você é homem? _Sim: +; Qual seu nível de escolaridade? _Ensino Médio Incompleto: −; Qual é a sua faixa etária? _Até 18 anos: +</t>
+          <t>Você é homem? _Sim: +</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1.318</v>
+        <v>1.321</v>
       </c>
       <c r="J47" t="n">
         <v>1.529</v>
       </c>
       <c r="K47" t="n">
-        <v>1.346</v>
+        <v>1.343</v>
       </c>
     </row>
     <row r="48">
@@ -2359,7 +2351,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2367,30 +2359,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.6033113435977161</v>
+        <v>-0.6280235745254971</v>
       </c>
       <c r="E48" t="n">
-        <v>1.582892566771992e-06</v>
+        <v>3.673842961900069e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6386027760306274</v>
+        <v>-0.6615112050284808</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2736130492585133</v>
+        <v>0.2526773783350194</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Qual é o seu vínculo empregatício? : −; Você é homem? _Sim: −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
+          <t>Qual é o seu vínculo empregatício? : −; Você se considera uma pessoa politicamente engajada? _Sim: −</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.214</v>
+        <v>1.194</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.214</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="49">
@@ -2400,7 +2392,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2408,30 +2400,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.3158333051073199</v>
+        <v>-0.3396156184497587</v>
       </c>
       <c r="E49" t="n">
-        <v>0.009744537417401371</v>
+        <v>0.004416976830140781</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.2123579787007898</v>
+        <v>-0.3964016354650249</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7043918332747988</v>
+        <v>0.4720327328203165</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Médio Completo: −</t>
+          <t>(nenhum)</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.406</v>
+        <v>1.404</v>
       </c>
       <c r="J49" t="n">
         <v>1.176</v>
       </c>
       <c r="K49" t="n">
-        <v>1.251</v>
+        <v>1.315</v>
       </c>
     </row>
     <row r="50">
@@ -2441,7 +2433,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2449,16 +2441,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.8298998028848404</v>
+        <v>-0.8071615026699207</v>
       </c>
       <c r="E50" t="n">
-        <v>2.887428670272745e-09</v>
+        <v>1.884472413247017e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5266298541400863</v>
+        <v>0.5267422415258384</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4107884238330651</v>
+        <v>0.401317556299721</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2466,7 +2458,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.916</v>
+        <v>0.921</v>
       </c>
       <c r="J50" t="n">
         <v>1.176</v>
@@ -2482,7 +2474,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2490,30 +2482,26 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6178498302358285</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.002884045759788781</v>
-      </c>
+        <v>0.619275318999681</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>0.7269416766809917</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.4365472084227144</v>
-      </c>
+        <v>0.7578026603455209</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>(nenhum)</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1.799</v>
+        <v>1.794</v>
       </c>
       <c r="J51" t="n">
         <v>1.882</v>
       </c>
       <c r="K51" t="n">
-        <v>1.781</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="52">
@@ -2523,7 +2511,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2531,30 +2519,30 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.5937033248845099</v>
+        <v>-0.6151615344761512</v>
       </c>
       <c r="E52" t="n">
-        <v>1.309005808728216e-05</v>
+        <v>4.218609710682496e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.4089981350391469</v>
+        <v>-0.489817331696545</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5079857502859039</v>
+        <v>0.4250347914510672</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Qual seu nível de escolaridade? _Ensino Superior Completo: −; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +; Qual é a sua faixa etária? _Até 18 anos: −</t>
+          <t>Qual seu nível de escolaridade? _Ensino Superior Completo: −; Qual seu nível de escolaridade? _Ensino Superior Incompleto: −; Qual seu nível de escolaridade? _Pós-graduação: −; Qual é a sua faixa etária? _46 a 55 anos: +; Qual é a sua faixa etária? _66 anos ou mais: +</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.876</v>
+        <v>0.878</v>
       </c>
       <c r="J52" t="n">
         <v>0.706</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="53">
@@ -2564,7 +2552,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2572,16 +2560,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.3386206845754298</v>
+        <v>-0.3367303323600209</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02851523184210704</v>
+        <v>0.02507845720133885</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5054307847813571</v>
+        <v>-0.6153029483565332</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5285332981058236</v>
+        <v>0.4379692328917992</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2589,13 +2577,13 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.368</v>
+        <v>0.355</v>
       </c>
       <c r="J53" t="n">
         <v>0.235</v>
       </c>
       <c r="K53" t="n">
-        <v>0.318</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="54">
@@ -2605,7 +2593,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2613,16 +2601,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.624780656438978</v>
+        <v>0.6461525377263307</v>
       </c>
       <c r="E54" t="n">
-        <v>9.448994814397087e-06</v>
+        <v>3.973673281501834e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1991840817482465</v>
+        <v>0.2236088490770424</v>
       </c>
       <c r="G54" t="n">
-        <v>0.743902346147433</v>
+        <v>0.7133896802749051</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2630,13 +2618,13 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.429</v>
+        <v>1.442</v>
       </c>
       <c r="J54" t="n">
         <v>1.471</v>
       </c>
       <c r="K54" t="n">
-        <v>1.398</v>
+        <v>1.393</v>
       </c>
     </row>
   </sheetData>
